--- a/references/実行中の従業員脈拍調査：ケーススタディの例と質問.xlsx
+++ b/references/実行中の従業員脈拍調査：ケーススタディの例と質問.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18315" windowHeight="7380"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B:$D</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -442,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -640,10 +643,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -663,7 +666,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -695,10 +698,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -718,7 +721,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -733,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -807,7 +810,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -842,7 +844,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1018,11 +1019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1054,7 +1058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="85.5">
+    <row r="5" spans="2:4" ht="57">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="67.5">
+    <row r="6" spans="2:4" ht="40.5">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="57">
+    <row r="7" spans="2:4" ht="42.75">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.5">
+    <row r="8" spans="2:4" ht="21.75">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="43.5">
+    <row r="10" spans="2:4" ht="21.75">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28.5">
+    <row r="11" spans="2:4" ht="14.25">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="28.5">
+    <row r="12" spans="2:4" ht="14.25">
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28.5">
+    <row r="13" spans="2:4" ht="14.25">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="28.5">
+    <row r="15" spans="2:4" ht="14.25">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="43.5">
+    <row r="18" spans="2:4" ht="21.75">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="36">
+    <row r="21" spans="2:4" ht="21">
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="36">
+    <row r="22" spans="2:4" ht="42">
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="36">
+    <row r="23" spans="2:4" ht="42">
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18">
+    <row r="24" spans="2:4" ht="21">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="36">
+    <row r="25" spans="2:4" ht="42">
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="36">
+    <row r="26" spans="2:4" ht="42">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="36">
+    <row r="27" spans="2:4" ht="42">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="36">
+    <row r="28" spans="2:4" ht="21">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="36">
+    <row r="29" spans="2:4" ht="21">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="36">
+    <row r="30" spans="2:4" ht="42">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="43.5">
+    <row r="31" spans="2:4" ht="21.75">
       <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="57">
+    <row r="32" spans="2:4" ht="42.75">
       <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="42.75">
+    <row r="34" spans="2:4" ht="28.5">
       <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="72">
+    <row r="68" spans="2:4" ht="84">
       <c r="B68" s="8" t="s">
         <v>36</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="126">
+    <row r="69" spans="2:4" ht="147">
       <c r="B69" s="8" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="72">
+    <row r="72" spans="2:4" ht="84">
       <c r="B72" s="8" t="s">
         <v>40</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="72">
+    <row r="73" spans="2:4" ht="84">
       <c r="B73" s="8" t="s">
         <v>41</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="54">
+    <row r="75" spans="2:4" ht="63">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="72">
+    <row r="76" spans="2:4" ht="84">
       <c r="B76" s="8" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="54">
+    <row r="79" spans="2:4" ht="84">
       <c r="B79" s="8" t="s">
         <v>47</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="90">
+    <row r="80" spans="2:4" ht="105">
       <c r="B80" s="8" t="s">
         <v>48</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="54">
+    <row r="82" spans="2:4" ht="63">
       <c r="B82" s="8" t="s">
         <v>50</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="90">
+    <row r="83" spans="2:4" ht="105">
       <c r="B83" s="8" t="s">
         <v>51</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="54">
+    <row r="85" spans="2:4" ht="63">
       <c r="B85" s="8" t="s">
         <v>53</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="72">
+    <row r="86" spans="2:4" ht="84">
       <c r="B86" s="8" t="s">
         <v>54</v>
       </c>
@@ -1611,12 +1615,13 @@
     <hyperlink ref="D77" r:id="rId4" display="https://www.etsplc.com/mcdonalds-employee-survey-case-study/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1629,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
